--- a/src/outputs/New folder/3-quintals.xlsx
+++ b/src/outputs/New folder/3-quintals.xlsx
@@ -428,13 +428,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>585.66712328575</v>
+        <v>335.66712328575</v>
       </c>
       <c r="B3" t="n">
-        <v>675.3095890245</v>
+        <v>425.3095890245</v>
       </c>
       <c r="C3" t="n">
-        <v>893.8424657640001</v>
+        <v>643.8424657640001</v>
       </c>
       <c r="D3" t="n">
         <v>645</v>
@@ -457,13 +457,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>88.98082192299999</v>
+        <v>46.98082192299999</v>
       </c>
       <c r="B4" t="n">
-        <v>97.545205475</v>
+        <v>55.545205475</v>
       </c>
       <c r="C4" t="n">
-        <v>110.016438356</v>
+        <v>68.01643835600001</v>
       </c>
       <c r="D4" t="n">
         <v>645</v>
@@ -486,13 +486,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>276.652054798</v>
+        <v>76.65205479799999</v>
       </c>
       <c r="B5" t="n">
-        <v>322.416438352</v>
+        <v>122.416438352</v>
       </c>
       <c r="C5" t="n">
-        <v>366.750684936</v>
+        <v>166.750684936</v>
       </c>
       <c r="D5" t="n">
         <v>645</v>
@@ -515,13 +515,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>485.547945192</v>
+        <v>203.547945192</v>
       </c>
       <c r="B6" t="n">
-        <v>513.394520543</v>
+        <v>231.394520543</v>
       </c>
       <c r="C6" t="n">
-        <v>534.90410957275</v>
+        <v>252.90410957275</v>
       </c>
       <c r="D6" t="n">
         <v>645</v>
@@ -544,13 +544,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>146.59999999975</v>
+        <v>21.59999999975</v>
       </c>
       <c r="B7" t="n">
-        <v>158.747945202</v>
+        <v>33.747945202</v>
       </c>
       <c r="C7" t="n">
-        <v>177.126027396</v>
+        <v>52.126027396</v>
       </c>
       <c r="D7" t="n">
         <v>645</v>
@@ -573,13 +573,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>236.65068493875</v>
+        <v>152.65068493875</v>
       </c>
       <c r="B8" t="n">
-        <v>333.5479452435</v>
+        <v>249.5479452435</v>
       </c>
       <c r="C8" t="n">
-        <v>414.278082202</v>
+        <v>330.278082202</v>
       </c>
       <c r="D8" t="n">
         <v>645</v>
@@ -648,13 +648,13 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>101.8684931505</v>
+        <v>70.8684931505</v>
       </c>
       <c r="B11" t="n">
-        <v>127.74520548</v>
+        <v>96.74520548</v>
       </c>
       <c r="C11" t="n">
-        <v>157.2520547865</v>
+        <v>126.2520547865</v>
       </c>
       <c r="D11" t="n">
         <v>645</v>
@@ -677,13 +677,13 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>376.26849315</v>
+        <v>76.26849315</v>
       </c>
       <c r="B12" t="n">
-        <v>436.87671236</v>
+        <v>136.87671236</v>
       </c>
       <c r="C12" t="n">
-        <v>501.2780821699999</v>
+        <v>201.27808217</v>
       </c>
       <c r="D12" t="n">
         <v>645</v>
@@ -735,13 +735,13 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>624.4230852999999</v>
+        <v>374.4230853</v>
       </c>
       <c r="B14" t="n">
-        <v>764.3861644999999</v>
+        <v>514.3861644999999</v>
       </c>
       <c r="C14" t="n">
-        <v>1076.57005395</v>
+        <v>826.5700539500001</v>
       </c>
       <c r="D14" t="n">
         <v>645</v>
@@ -764,13 +764,13 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>95.5546875</v>
+        <v>53.5546875</v>
       </c>
       <c r="B15" t="n">
-        <v>109.36510293</v>
+        <v>67.36510293000001</v>
       </c>
       <c r="C15" t="n">
-        <v>122.39507093</v>
+        <v>80.39507093</v>
       </c>
       <c r="D15" t="n">
         <v>645</v>
@@ -793,13 +793,13 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>239.4922292525</v>
+        <v>39.4922292525</v>
       </c>
       <c r="B16" t="n">
-        <v>285.824940505</v>
+        <v>85.824940505</v>
       </c>
       <c r="C16" t="n">
-        <v>340.853177075</v>
+        <v>140.853177075</v>
       </c>
       <c r="D16" t="n">
         <v>645</v>
@@ -822,13 +822,13 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>311.903669115</v>
+        <v>29.903669115</v>
       </c>
       <c r="B17" t="n">
-        <v>391.5110649</v>
+        <v>109.5110649</v>
       </c>
       <c r="C17" t="n">
-        <v>474.8629489</v>
+        <v>192.8629489</v>
       </c>
       <c r="D17" t="n">
         <v>645</v>
@@ -851,13 +851,13 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>137.69863199</v>
+        <v>12.69863199</v>
       </c>
       <c r="B18" t="n">
-        <v>147.7802971</v>
+        <v>22.7802971</v>
       </c>
       <c r="C18" t="n">
-        <v>172.1890411</v>
+        <v>47.1890411</v>
       </c>
       <c r="D18" t="n">
         <v>645</v>
@@ -880,13 +880,13 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>212.0154018</v>
+        <v>128.0154018</v>
       </c>
       <c r="B19" t="n">
-        <v>283.0555515999999</v>
+        <v>199.0555516</v>
       </c>
       <c r="C19" t="n">
-        <v>381.9328493</v>
+        <v>297.9328493</v>
       </c>
       <c r="D19" t="n">
         <v>645</v>
@@ -955,13 +955,13 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>90.82274124</v>
+        <v>59.82274124</v>
       </c>
       <c r="B22" t="n">
-        <v>123.6644922</v>
+        <v>92.6644922</v>
       </c>
       <c r="C22" t="n">
-        <v>159.6128048</v>
+        <v>128.6128048</v>
       </c>
       <c r="D22" t="n">
         <v>645</v>
@@ -984,13 +984,13 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>360.37804578</v>
+        <v>60.37804578</v>
       </c>
       <c r="B23" t="n">
-        <v>397.8862387</v>
+        <v>97.88623869999999</v>
       </c>
       <c r="C23" t="n">
-        <v>458.7319834</v>
+        <v>158.7319834</v>
       </c>
       <c r="D23" t="n">
         <v>645</v>
@@ -1042,13 +1042,13 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>352.8</v>
+        <v>199.8</v>
       </c>
       <c r="B25" t="n">
-        <v>411.4</v>
+        <v>258.4</v>
       </c>
       <c r="C25" t="n">
-        <v>484.6</v>
+        <v>331.6</v>
       </c>
       <c r="D25" t="n">
         <v>664</v>
@@ -1071,13 +1071,13 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>946.8499999999999</v>
+        <v>496.85</v>
       </c>
       <c r="B26" t="n">
-        <v>992.4000000000001</v>
+        <v>542.4000000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>1138.8</v>
+        <v>688.8000000000001</v>
       </c>
       <c r="D26" t="n">
         <v>664</v>
@@ -1100,13 +1100,13 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>168.7</v>
+        <v>42.7</v>
       </c>
       <c r="B27" t="n">
-        <v>197.6</v>
+        <v>71.60000000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>221.9</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="D27" t="n">
         <v>664</v>
@@ -1129,13 +1129,13 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1540.7</v>
+        <v>690.7</v>
       </c>
       <c r="B28" t="n">
-        <v>1606.6666666655</v>
+        <v>756.6666666654999</v>
       </c>
       <c r="C28" t="n">
-        <v>1647.75</v>
+        <v>797.7499999999999</v>
       </c>
       <c r="D28" t="n">
         <v>664</v>
@@ -1158,13 +1158,13 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>644.65</v>
+        <v>69.64999999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>687.7</v>
+        <v>112.7</v>
       </c>
       <c r="C29" t="n">
-        <v>728.6500000000001</v>
+        <v>153.65</v>
       </c>
       <c r="D29" t="n">
         <v>664</v>
@@ -1187,13 +1187,13 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>423.6</v>
+        <v>272.6</v>
       </c>
       <c r="B30" t="n">
-        <v>529.8</v>
+        <v>378.8</v>
       </c>
       <c r="C30" t="n">
-        <v>637.05</v>
+        <v>486.05</v>
       </c>
       <c r="D30" t="n">
         <v>664</v>
@@ -1268,13 +1268,13 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>375.4</v>
+        <v>255.4</v>
       </c>
       <c r="B33" t="n">
-        <v>447.3</v>
+        <v>327.3</v>
       </c>
       <c r="C33" t="n">
-        <v>538.0999999999999</v>
+        <v>418.1</v>
       </c>
       <c r="D33" t="n">
         <v>664</v>
@@ -1297,13 +1297,13 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>100.6</v>
+        <v>22.6</v>
       </c>
       <c r="B34" t="n">
-        <v>115</v>
+        <v>37</v>
       </c>
       <c r="C34" t="n">
-        <v>135</v>
+        <v>57</v>
       </c>
       <c r="D34" t="n">
         <v>664</v>
@@ -1355,13 +1355,13 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>381.504896575</v>
+        <v>228.504896575</v>
       </c>
       <c r="B36" t="n">
-        <v>462.0161856</v>
+        <v>309.0161856</v>
       </c>
       <c r="C36" t="n">
-        <v>578.9589347</v>
+        <v>425.9589347</v>
       </c>
       <c r="D36" t="n">
         <v>664</v>
@@ -1384,13 +1384,13 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1004.391894675</v>
+        <v>554.391894675</v>
       </c>
       <c r="B37" t="n">
-        <v>1066.7195649</v>
+        <v>616.7195649</v>
       </c>
       <c r="C37" t="n">
-        <v>1341.823850875</v>
+        <v>891.8238508750001</v>
       </c>
       <c r="D37" t="n">
         <v>664</v>
@@ -1413,13 +1413,13 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>146.09612523</v>
+        <v>20.09612523</v>
       </c>
       <c r="B38" t="n">
-        <v>176.18445276</v>
+        <v>50.18445276</v>
       </c>
       <c r="C38" t="n">
-        <v>208.919900115</v>
+        <v>82.919900115</v>
       </c>
       <c r="D38" t="n">
         <v>664</v>
@@ -1442,13 +1442,13 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>993.346967175</v>
+        <v>143.346967175</v>
       </c>
       <c r="B39" t="n">
-        <v>1279.3707777</v>
+        <v>429.3707777</v>
       </c>
       <c r="C39" t="n">
-        <v>1549.95731625</v>
+        <v>699.95731625</v>
       </c>
       <c r="D39" t="n">
         <v>664</v>
@@ -1471,13 +1471,13 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>613.2997118550001</v>
+        <v>38.299711855</v>
       </c>
       <c r="B40" t="n">
-        <v>653.20510342</v>
+        <v>78.20510342</v>
       </c>
       <c r="C40" t="n">
-        <v>733.35314995</v>
+        <v>158.35314995</v>
       </c>
       <c r="D40" t="n">
         <v>664</v>
@@ -1500,13 +1500,13 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>362.2058537</v>
+        <v>211.2058537</v>
       </c>
       <c r="B41" t="n">
-        <v>467.0252081</v>
+        <v>316.0252081</v>
       </c>
       <c r="C41" t="n">
-        <v>646.6766917</v>
+        <v>495.6766916999999</v>
       </c>
       <c r="D41" t="n">
         <v>664</v>
@@ -1575,13 +1575,13 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>344.72798705</v>
+        <v>224.72798705</v>
       </c>
       <c r="B44" t="n">
-        <v>450.0847505</v>
+        <v>330.0847505</v>
       </c>
       <c r="C44" t="n">
-        <v>547.4572179999999</v>
+        <v>427.4572179999999</v>
       </c>
       <c r="D44" t="n">
         <v>664</v>
@@ -1604,13 +1604,13 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>95.88303249000001</v>
+        <v>17.88303249</v>
       </c>
       <c r="B45" t="n">
-        <v>106.3778542</v>
+        <v>28.3778542</v>
       </c>
       <c r="C45" t="n">
-        <v>122.62961177</v>
+        <v>44.62961177</v>
       </c>
       <c r="D45" t="n">
         <v>664</v>
